--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181110.312787651</v>
+        <v>-183698.9234675144</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>266.4889268777716</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>283.3551302435255</v>
+        <v>47.53833157744259</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>126.9764479892948</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>98.98763661205199</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>52.21681339464209</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>186.0776770583089</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>226.4005801372461</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>279.7186704248449</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>217.1211900853306</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>377.423656005332</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>74.68741221032337</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.310772108027</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>90.69811547110022</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>70.80302811979766</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>81.29683349370507</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.5813113004308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>123.9815576456734</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>142.5631989720292</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>165.6720686991039</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>102.9012384238807</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.1208074460236</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.21841339139942</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>43.55707494718542</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>33.4849932895302</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.755147556638</v>
+        <v>1238.949699875794</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.792630616226</v>
+        <v>1238.949699875794</v>
       </c>
       <c r="D2" t="n">
-        <v>1200.611896396255</v>
+        <v>880.6840012690434</v>
       </c>
       <c r="E2" t="n">
-        <v>814.8236437980106</v>
+        <v>880.6840012690434</v>
       </c>
       <c r="F2" t="n">
-        <v>403.8377390084031</v>
+        <v>469.6980964794359</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.89447953245</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.755147556638</v>
+        <v>1625.549539939916</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507741</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.1529317523638</v>
+        <v>1544.919227099742</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>1375.983044171835</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>1225.8664047595</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>1125.878893030154</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>1125.878893030154</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>1125.878893030154</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1583.701864120313</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1583.701864120313</v>
+        <v>2236.777441110472</v>
       </c>
       <c r="U4" t="n">
-        <v>1294.583526624151</v>
+        <v>2236.777441110472</v>
       </c>
       <c r="V4" t="n">
-        <v>1294.583526624151</v>
+        <v>2236.777441110472</v>
       </c>
       <c r="W4" t="n">
-        <v>1294.583526624151</v>
+        <v>1947.360271073512</v>
       </c>
       <c r="X4" t="n">
-        <v>1066.593975726134</v>
+        <v>1947.360271073512</v>
       </c>
       <c r="Y4" t="n">
-        <v>845.8013965826035</v>
+        <v>1726.567691929982</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.2034880760486</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="C5" t="n">
-        <v>990.2034880760486</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="D5" t="n">
-        <v>631.9377894692982</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E5" t="n">
-        <v>246.149536871054</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>239.2040361218505</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.34282005186</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.2034880760486</v>
+        <v>1540.262284242502</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
         <v>1967.526114878148</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>831.7113734044286</v>
+        <v>666.9516006271326</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7751904765217</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>831.7113734044286</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>831.7113734044286</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>831.7113734044286</v>
+        <v>894.94115152515</v>
       </c>
       <c r="X7" t="n">
-        <v>831.7113734044286</v>
+        <v>666.9516006271326</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.7113734044286</v>
+        <v>666.9516006271326</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1975.598450347025</v>
+        <v>848.1875530107163</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.635933406614</v>
+        <v>848.1875530107163</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>848.1875530107163</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>848.1875530107163</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,13 +4805,13 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926625</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>2362.198290411147</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.198290411147</v>
+        <v>1234.787393074838</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.6438724554071</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554071</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,10 +4975,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232069</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>962.1544032232069</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>962.1544032232069</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>741.3618240796768</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2308.399169610645</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2088.797704633586</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1799.722477977784</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1545.037989771897</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1255.620819734936</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1027.631268836919</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>806.8386896933887</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8426071208989</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400667</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400667</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854702</v>
+        <v>1833.45784922563</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648815</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611854</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138365</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703064</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>251.562654109227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249857</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.1865537761979</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>593.9300580556954</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>447.0401105577851</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>279.844011272665</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421613</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6455,22 +6455,22 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6689,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,10 +7190,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273905</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>815.6411092982063</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>665.5244698858705</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7391,34 +7391,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,28 +7804,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L3" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>294.834493518473</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1925725294285</v>
+        <v>364.0093711955114</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>110.2232578818469</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>64.12421452922618</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.003342051664</v>
+        <v>218.5846533520993</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.63391537253892</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.43396264657</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>143.6212754172149</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.574752399523959</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>37.39347442234323</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>35.40333084624521</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>47.21554925516975</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>112.948969357039</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1117145.902153907</v>
+        <v>1117145.902153906</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1117145.902153906</v>
+        <v>1117145.902153907</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1117145.902153906</v>
+        <v>1117145.902153907</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028985</v>
+        <v>274720.9666028987</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837521</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="L2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83832.21090430407</v>
+        <v>83832.21090430417</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26433,31 +26433,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731962</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731957</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="O4" t="n">
-        <v>8117.312426731998</v>
-      </c>
       <c r="P4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982545</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1016800.80031717</v>
+        <v>-1017021.931631145</v>
       </c>
       <c r="C6" t="n">
-        <v>80634.89099739786</v>
+        <v>80634.89099739803</v>
       </c>
       <c r="D6" t="n">
-        <v>80634.8909973978</v>
+        <v>80634.89099739789</v>
       </c>
       <c r="E6" t="n">
-        <v>-314045.3089914327</v>
+        <v>-314080.0469168685</v>
       </c>
       <c r="F6" t="n">
-        <v>193440.132633113</v>
+        <v>193405.3947076773</v>
       </c>
       <c r="G6" t="n">
-        <v>193440.1326331132</v>
+        <v>193405.3947076773</v>
       </c>
       <c r="H6" t="n">
-        <v>193440.132633113</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="I6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076774</v>
       </c>
       <c r="J6" t="n">
-        <v>25834.95482313045</v>
+        <v>25800.21689769486</v>
       </c>
       <c r="K6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="L6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076774</v>
       </c>
       <c r="M6" t="n">
-        <v>60832.83890418649</v>
+        <v>60798.10097875068</v>
       </c>
       <c r="N6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076773</v>
       </c>
       <c r="O6" t="n">
-        <v>193440.1326331132</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="P6" t="n">
-        <v>169190.6581617334</v>
+        <v>169190.6581617335</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>88.19411474291138</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>259.2614906667587</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.44632603451718</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>142.4456469670954</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>225.4700257146451</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>143.3305205412229</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6.508483696355711</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>69.40180825126043</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>29.45238973637942</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>295.0436884681457</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.52120807391026</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>130.0505805261117</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338208</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>332.9841464938405</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>297.1808238847177</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L3" t="n">
-        <v>484.1293732522352</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>630.259175514596</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394658</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010404</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
